--- a/root/parsers/CParDevilBissClub/CParDevilBissClub_summary.xlsx
+++ b/root/parsers/CParDevilBissClub/CParDevilBissClub_summary.xlsx
@@ -279,7 +279,10 @@
     <t>~31 см</t>
   </si>
   <si>
-    <t>Универсальные краскопульты серии DeVilbiss GTi Pro Lite - это развитие линейки краскопультов предыдущего поколения DeVilbiss GTi Pro. Модель DeVilbiss GTi Pro Lite имеет новый облегченный корпус и улучшенные конструктивно-эксплуатационные характеристики. Данные краскопульты предназначены для нанесение различных видов лако-красочных материалов.</t>
+    <t>Универсальные краскопульты серии DeVilbiss GTi Pro Lite - это развитие линейки краскопультов предыдущего поколения DeVilbiss GTi Pro. Модель DeVilbiss GTi Pro Lite имеет новый облегченный корпус и улучшенные конструктивно-эксплуатационные характеристики. Данные краскопульты предназначены для нанесение различных видов лако-красочных материалов.
+Благодаря принципу универсальности корпуса, Вы всегда сможете подобрать оптимальную конфигурацию воздушной головы и дюзы (сопла). За счет этих факторов, производительность, качество распыления материала и надежность краскораспылителей DeVilbiss выше, чем у аналогов.
+Компания DeVilbiss является мировым лидером в производстве покрасочного оборудования для автосервисов. А основатель компании, доктор Ален ДеВилбисс, является изобретателем принципа распыления материалов. Краскопульты DeVilbiss являются безупречным эталоном в сфере покраски автомобилей вот уже более 100 лет!
+С 2014-го года DeVilbiss является признанным лидером и в России. Это подтверждает Диплом, полученный на прошедшей в Крокус-Экспо выставке «ИНТЕРАВТО». Награда "Золотой Ключ 2014" вручена компании DeVilbiss в номинации "Лучший пистолет для нанесения ЛКМ". В 2015-ом и 2016-ом годах DeVilbiss подтвердил звание лучшего краскопульта в России!</t>
   </si>
   <si>
     <t>https://devilbiss.club/universal/gti-pro-lite-blue-nocup/</t>
@@ -345,7 +348,11 @@
     <t>https://devilbiss.clubhttps://devilbiss.club/index.php?dispatch=attachments.getfile&amp;attachment_id=82</t>
   </si>
   <si>
-    <t>Данная ограниченная серия краскопультов DeVilbiss GTi Pro Lite специально выпущена к Чемпионату Мира по футболу FIFA 2018 в России!</t>
+    <t>Данная ограниченная серия краскопультов DeVilbiss GTi Pro Lite специально выпущена к Чемпионату Мира по футболу FIFA 2018 в России!
+Универсальные краскопульты серии DeVilbiss GTi Pro Lite - это развитие линейки краскопультов предыдущего поколения DeVilbiss GTi Pro. Модель DeVilbiss GTi Pro Lite имеет новый облегченный корпус и улучшенные конструктивно-эксплуатационные характеристики. Данные краскопульты предназначены для нанесение различных видов лако-красочных материалов.
+Благодаря принципу универсальности корпуса, Вы всегда сможете подобрать оптимальную конфигурацию воздушной головы и дюзы (сопла). За счет этих факторов, производительность, качество распыления материала и надежность краскораспылителей DeVilbiss выше, чем у аналогов.
+Компания DeVilbiss является мировым лидером в производстве покрасочного оборудования для автосервисов. А основатель компании, доктор Ален ДеВилбисс, является изобретателем принципа распыления материалов. Краскопульты DeVilbiss являются безупречным эталоном в сфере покраски автомобилей вот уже более 100 лет!
+С 2014-го года DeVilbiss является признанным лидером и в России. Это подтверждает Диплом, полученный на прошедшей в Крокус-Экспо выставке «ИНТЕРАВТО». Награда "Золотой Ключ 2014" вручена компании DeVilbiss в номинации "Лучший пистолет для нанесения ЛКМ". В 2015-ом и 2016-ом годах DeVilbiss подтвердил звание лучшего краскопульта в России!</t>
   </si>
   <si>
     <t>https://devilbiss.club/universal/gti-pro-lite-fifa2018-gold/</t>
@@ -498,7 +505,12 @@
     <t>https://devilbiss.clubhttps://devilbiss.club/index.php?dispatch=attachments.getfile&amp;attachment_id=86</t>
   </si>
   <si>
-    <t>Лимитированная версия DeVilbiss GTi Pro Lite Super Black с белым бачком.</t>
+    <t>Лимитированная версия DeVilbiss GTi Pro Lite Super Black с белым бачком.
+Универсальные краскопульты серии DeVilbiss GTi Pro Lite - это развитие линейки краскопультов предыдущего поколения DeVilbiss GTi Pro. Модель DeVilbiss GTi Pro Lite имеет новый облегченный корпус и улучшенные конструктивно-эксплуатационные характеристики. Данные краскопульты предназначены для нанесение различных видов лако-красочных материалов.
+Благодаря принципу универсальности корпуса, Вы всегда сможете подобрать оптимальную конфигурацию воздушной головы и дюзы (сопла). За счет этих факторов, производительность, качество распыления материала и надежность краскораспылителей DeVilbiss выше, чем у аналогов.
+Краскопульт в данном цвете обладает новым полуматовым покрытием Quick Clean, облегчающим чистку пистолета.
+Компания DeVilbiss является мировым лидером в производстве покрасочного оборудования для автосервисов. А основатель компании, доктор Ален ДеВилбисс, является изобретателем принципа распыления материалов. Краскопульты DeVilbiss являются безупречным эталоном в сфере покраски автомобилей вот уже более 100 лет!
+С 2014-го года DeVilbiss является признанным лидером и в России. Это подтверждает Диплом, полученный на прошедшей в Крокус-Экспо выставке «ИНТЕРАВТО». Награда "Золотой Ключ 2014" вручена компании DeVilbiss в номинации "Лучший пистолет для нанесения ЛКМ". В 2015-ом и 2016-ом годах DeVilbiss подтвердил звание лучшего краскопульта в России!</t>
   </si>
   <si>
     <t>https://devilbiss.club/universal/gti-pro-lite-super-black-cup-black/</t>
@@ -534,7 +546,12 @@
     <t>https://devilbiss.clubhttps://devilbiss.club/index.php?dispatch=attachments.getfile&amp;attachment_id=85</t>
   </si>
   <si>
-    <t>Лимитированная версия DeVilbiss GTi Pro Lite Super Black с черным бачком.</t>
+    <t>Лимитированная версия DeVilbiss GTi Pro Lite Super Black с черным бачком.
+Универсальные краскопульты серии DeVilbiss GTi Pro Lite - это развитие линейки краскопультов предыдущего поколения DeVilbiss GTi Pro. Модель DeVilbiss GTi Pro Lite имеет новый облегченный корпус и улучшенные конструктивно-эксплуатационные характеристики. Данные краскопульты предназначены для нанесение различных видов лако-красочных материалов.
+Благодаря принципу универсальности корпуса, Вы всегда сможете подобрать оптимальную конфигурацию воздушной головы и дюзы (сопла). За счет этих факторов, производительность, качество распыления материала и надежность краскораспылителей DeVilbiss выше, чем у аналогов.
+Краскопульт в данном цвете обладает новым полуматовым покрытием Quick Clean, облегчающим чистку пистолета.
+Компания DeVilbiss является мировым лидером в производстве покрасочного оборудования для автосервисов. А основатель компании, доктор Ален ДеВилбисс, является изобретателем принципа распыления материалов. Краскопульты DeVilbiss являются безупречным эталоном в сфере покраски автомобилей вот уже более 100 лет!
+С 2014-го года DeVilbiss является признанным лидером и в России. Это подтверждает Диплом, полученный на прошедшей в Крокус-Экспо выставке «ИНТЕРАВТО». Награда "Золотой Ключ 2014" вручена компании DeVilbiss в номинации "Лучший пистолет для нанесения ЛКМ". В 2015-ом и 2016-ом годах DeVilbiss подтвердил звание лучшего краскопульта в России!</t>
   </si>
   <si>
     <t>https://devilbiss.club/universal/gti-pro-lite-gold-metal/</t>
@@ -735,7 +752,8 @@
     <t>~28 см</t>
   </si>
   <si>
-    <t>Краскопульт DeVilbiss FLG-5 - бюджетная модель, созданная для широкого спектра задач - от нанесения грунта и жидкой резины (с соплом 1,8 мм) до нанесения краски и лака (с соплом 1,4 мм). Отличное соотношение цены и качества делает данный краскопульт одним из самых востребованных в бюджетном сегменте! Работает по технологии среднего давления - Trans-Tech (аналог RP). Обратите внимание, что данный краскораспылитель не подходит для работы с материалами на водной основе.</t>
+    <t>Краскопульт DeVilbiss FLG-5 - бюджетная модель, созданная для широкого спектра задач - от нанесения грунта и жидкой резины (с соплом 1,8 мм) до нанесения краски и лака (с соплом 1,4 мм). Отличное соотношение цены и качества делает данный краскопульт одним из самых востребованных в бюджетном сегменте! Работает по технологии среднего давления - Trans-Tech (аналог RP). Обратите внимание, что данный краскораспылитель не подходит для работы с материалами на водной основе.
+С 2014-го года DeVilbiss является признанным лидером и в России. Это подтверждает Диплом, полученный на прошедшей в Крокус-Экспо выставке «ИНТЕРАВТО». Награда "Золотой Ключ 2014" вручена компании DeVilbiss в номинации "Лучший пистолет для нанесения ЛКМ". В 2015-ом и 2016-ом годах DeVilbiss подтвердил звание лучшего краскопульта в России!</t>
   </si>
   <si>
     <t>https://devilbiss.club/universal/flg-5/</t>
@@ -888,6 +906,13 @@
     <t>https://devilbiss.clubhttps://devilbiss.club/index.php?dispatch=attachments.getfile&amp;attachment_id=75</t>
   </si>
   <si>
+    <t>Универсальные краскопульты серии DeVilbiss GTi Pro Lite - это развитие линейки краскопультов предыдущего поколения DeVilbiss GTi Pro. Модель DeVilbiss GTi Pro Lite имеет новый облегченный корпус и улучшенные конструктивно-эксплуатационные характеристики. Данные краскопульты предназначены для нанесение различных видов лако-красочных материалов.
+Благодаря принципу универсальности корпуса, Вы всегда сможете подобрать оптимальную конфигурацию воздушной головы и дюзы (сопла). За счет этих факторов, производительность, качество распыления материала и надежность краскораспылителей DeVilbiss выше, чем у аналогов.
+Краскопульт в данном цвете обладает новым полуматовым покрытием Quick Clean, облегчающим чистку пистолета.
+Компания DeVilbiss является мировым лидером в производстве покрасочного оборудования для автосервисов. А основатель компании, доктор Ален ДеВилбисс, является изобретателем принципа распыления материалов. Краскопульты DeVilbiss являются безупречным эталоном в сфере покраски автомобилей вот уже более 100 лет!
+С 2014-го года DeVilbiss является признанным лидером и в России. Это подтверждает Диплом, полученный на прошедшей в Крокус-Экспо выставке «ИНТЕРАВТО». Награда "Золотой Ключ 2014" вручена компании DeVilbiss в номинации "Лучший пистолет для нанесения ЛКМ". В 2015-ом и 2016-ом годах DeVilbiss подтвердил звание лучшего краскопульта в России!</t>
+  </si>
+  <si>
     <t>https://devilbiss.club/universal/gti-pro-lite-black/</t>
   </si>
   <si>
@@ -960,7 +985,9 @@
     <t>~30 см</t>
   </si>
   <si>
-    <t>Для достижения максимального качества нанесения базы и лака, стоит задуматься прежде всего о качественном нанесении грунтовочного покрытия. С этим великолепно справиться специальный краскопульт для работ с грунтом - DeVilbiss PRi Pro Lite. Данный пистолет работает по технологии среднего давления Trans-Tech и подходит для нанесения всех видов грунтовочных покрытий, включая грунты последнего поколения, а так же для нанесения жидкой резины и жидкой шпатлевки. Как и любой краскопульт от DeVilbiiss, PRi Pro Lite обладает универсальным корпусом, что позволит менять сопло в зависимости от используемых материалов, не меняя при этом иглу и воздушную голову.</t>
+    <t>Для достижения максимального качества нанесения базы и лака, стоит задуматься прежде всего о качественном нанесении грунтовочного покрытия. С этим великолепно справиться специальный краскопульт для работ с грунтом - DeVilbiss PRi Pro Lite. Данный пистолет работает по технологии среднего давления Trans-Tech и подходит для нанесения всех видов грунтовочных покрытий, включая грунты последнего поколения, а так же для нанесения жидкой резины и жидкой шпатлевки. Как и любой краскопульт от DeVilbiiss, PRi Pro Lite обладает универсальным корпусом, что позволит менять сопло в зависимости от используемых материалов, не меняя при этом иглу и воздушную голову.
+Компания DeVilbiss является мировым лидером в производстве покрасочного оборудования для автосервисов. А основатель компании, доктор Ален ДеВилбисс, является изобретателем принципа распыления материалов. Краскопульты DeVilbiss являются безупречным эталоном в сфере покраски автомобилей вот уже более 100 лет!
+С 2014-го года DeVilbiss является признанным лидером и в России. Это подтверждает Диплом, полученный на прошедшей в Крокус-Экспо выставке «ИНТЕРАВТО». Награда "Золотой Ключ 2014" вручена компании DeVilbiss в номинации "Лучший пистолет для нанесения ЛКМ". В 2015-ом и 2016-ом годах DeVilbiss подтвердил звание лучшего краскопульта в России!</t>
   </si>
   <si>
     <t>https://devilbiss.club/universal/pri-pro/</t>
@@ -1044,7 +1071,10 @@
     <t>~20 см</t>
   </si>
   <si>
-    <t>Мини краскопульт DeVilbiss SRi Pro Lite предназначен для локальных работ и покраски небольших поверхностей. Может применяться в аэрографии. Как и любой пистолет DeVilbiss серии Pro, мини краскопульт SRi Pro Lite имеет универсальный корпус. Это означает, что Вы можете самостоятельно выбирать необходимую конфигурацию воздушной головы и дюзы (сопла) в зависимости от проводимых работ и используемых материалов.</t>
+    <t>Мини краскопульт DeVilbiss SRi Pro Lite предназначен для локальных работ и покраски небольших поверхностей. Может применяться в аэрографии. Как и любой пистолет DeVilbiss серии Pro, мини краскопульт SRi Pro Lite имеет универсальный корпус. Это означает, что Вы можете самостоятельно выбирать необходимую конфигурацию воздушной головы и дюзы (сопла) в зависимости от проводимых работ и используемых материалов.
+Благодаря принципу универсальности корпуса, Вы всегда сможете подобрать оптимальную конфигурацию воздушной головы и дюзы (сопла). За счет этих факторов, производительность, качество распыления материала и надежность краскораспылителей DeVilbiss выше, чем у аналогов.
+Компания DeVilbiss является мировым лидером в производстве покрасочного оборудования для автосервисов. А основатель компании, доктор Ален ДеВилбисс, является изобретателем принципа распыления материалов. Краскопульты DeVilbiss являются безупречным эталоном в сфере покраски автомобилей вот уже более 100 лет!
+С 2014-го года DeVilbiss является признанным лидером и в России. Это подтверждает Диплом, полученный на прошедшей в Крокус-Экспо выставке «ИНТЕРАВТО». Награда "Золотой Ключ 2014" вручена компании DeVilbiss в номинации "Лучший пистолет для нанесения ЛКМ". В 2015-ом и 2016-ом годах DeVilbiss подтвердил звание лучшего краскопульта в России!</t>
   </si>
   <si>
     <t>https://devilbiss.club/universal/sri-pro-lite-regulator/</t>
@@ -1788,13 +1818,11 @@
     <t>https://devilbiss.clubhttps://devilbiss.club/images/thumbnails/35/35/detailed/1/h-6085-qd-1_web-new-4.jpg</t>
   </si>
   <si>
-    <t>10x-x- метров</t>
-  </si>
-  <si>
     <t>8 мм</t>
   </si>
   <si>
-    <t>Фирменный воздушный шланг DeVilbiss из высококачественных материалов с быстросъемными штуцерами. Длина - 10 метров. Внутренний диаметр - 8 мм. Использование оригинальных шлангов DeVilbiss гарантирует бесперебойность в работе и полную совместимость с различными краскопультами. </t>
+    <t>Фирменный воздушный шланг DeVilbiss из высококачественных материалов с быстросъемными штуцерами. Длина - 10 метров. Внутренний диаметр - 8 мм. Использование оригинальных шлангов DeVilbiss гарантирует бесперебойность в работе и полную совместимость с различными краскопультами. 
+В отличие от аналогичной продукции других производителей, воздушные шланги DeVilbiss отличаются повышенной долговечностью, благодаря более качественным материалам и креплениям из стали. Именно поэтому, на большинстве автомобильных заводов России используются именно шланги производства DeVilbiss.</t>
   </si>
   <si>
     <t>https://devilbiss.club/accessories/mpv-60/</t>
@@ -1842,7 +1870,9 @@
     <t>https://devilbiss.clubhttps://devilbiss.club/images/thumbnails/35/35/detailed/3/shim-3-web-new.jpg</t>
   </si>
   <si>
-    <t>Пластина для удаления подтеков SHIM MASK позволяет быстро и без риска устранять различного рода дефекты лакокрасочного покрытия (подтеки, пылинки, царапины). Данный продукт просто незаменим для любого малярного производства.</t>
+    <t>Пластина для удаления подтеков SHIM MASK позволяет быстро и без риска устранять различного рода дефекты лакокрасочного покрытия (подтеки, пылинки, царапины). Данный продукт просто незаменим для любого малярного производства.
+SHIM MASK представляет собой очень тонкую пластину-трафарет, изготовленную из нержавеющей стали. Трафарет имеет три различных по форме отверстия, которые подбираются в зависимости от характера дефекта. Это позволяет значительно сократить площадь при шлифовке (полировке) поверхности. Химическое травление форм обеспечивает гладкие края.
+ </t>
   </si>
   <si>
     <t>https://devilbiss.club/accessories/combinezondevilbiss/</t>
@@ -2265,7 +2295,8 @@
     <t>1,75 бар</t>
   </si>
   <si>
-    <t>Воздушная голова HV30 работает по технологии низкого давления HVLP (High Volume, Low Pressure - большой объем, низкое давление) и подходит для краскопультов серии DeVilbiss GTi Pro/GTi Pro Lite. Обеспечивает максимальную экономию материала. В большей степени подходит для нанесения базовых покрытий.</t>
+    <t>Воздушная голова HV30 работает по технологии низкого давления HVLP (High Volume, Low Pressure - большой объем, низкое давление) и подходит для краскопультов серии DeVilbiss GTi Pro/GTi Pro Lite. Обеспечивает максимальную экономию материала. В большей степени подходит для нанесения базовых покрытий.
+Обратите внимание, что данная воздушная голова потребляет достаточно большое количество воздуха - 460 литров в минуту. Перед началом работы с головой HV30 убедитесь, что Ваш компрессор имеет достаточную производительность, не менее, чем 600 литров в минуту (по паспорту).</t>
   </si>
   <si>
     <t>https://devilbiss.club/zapchasti/zapchasti-gti-pro-lite/pro-102-hv25-k/</t>
@@ -2280,7 +2311,8 @@
     <t>https://devilbiss.clubhttps://devilbiss.club/images/thumbnails/35/35/detailed/3/HV25-OLD-2.jpg</t>
   </si>
   <si>
-    <t>Воздушная голова HV25 работает по технологии низкого давления HVLP (High Volume, Low Pressure - большой объем, низкое давление) и подходит для краскопультов серии DeVilbiss GTi Pro/GTi Pro Lite. Обеспечивает отличную экономию материала. В большей степени подходит для нанесения базовых покрытий.</t>
+    <t>Воздушная голова HV25 работает по технологии низкого давления HVLP (High Volume, Low Pressure - большой объем, низкое давление) и подходит для краскопультов серии DeVilbiss GTi Pro/GTi Pro Lite. Обеспечивает отличную экономию материала. В большей степени подходит для нанесения базовых покрытий.
+Данная голова имеет сниженный расход воздуха - всего 350 литров в минуту, что является отличным показателем для технологии HVLP. Перед началом работы с головой HV25 убедитесь, что Ваш компрессор имеет достаточную производительность, не менее, чем 500 литров в минуту (по паспорту).</t>
   </si>
   <si>
     <t>https://devilbiss.club/zapchasti/zapchasti-gti-pro/vozdushnayapro-102-t110-k/</t>
@@ -2520,7 +2552,8 @@
     <t>Уплотнительное кольцо воздушного клапана (5 шт.)</t>
   </si>
   <si>
-    <t>Уплотнительное кольцо воздушного клапана (5 шт.) для краскопультов DeVilbiss GTi Pro, PRi Pro, SRi Pro, SRi Pro Lite, Advance.</t>
+    <t>Уплотнительное кольцо воздушного клапана (5 шт.) для краскопультов DeVilbiss GTi Pro, PRi Pro, SRi Pro, SRi Pro Lite, Advance.
+Инструкция по замене уплотнительного кольца:</t>
   </si>
   <si>
     <t>https://devilbiss.club/zapchasti/zapchasti-gti-pro/sn-402-k/</t>
@@ -5180,7 +5213,7 @@
         <v>85</v>
       </c>
       <c r="AW20" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:49">
@@ -5189,47 +5222,47 @@
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -5258,7 +5291,7 @@
         <v>106</v>
       </c>
       <c r="AF21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG21" t="s">
         <v>75</v>
@@ -5303,7 +5336,7 @@
         <v>85</v>
       </c>
       <c r="AW21" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:49">
@@ -5312,26 +5345,26 @@
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
         <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -5355,7 +5388,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC22" t="s">
         <v>73</v>
@@ -5363,7 +5396,7 @@
       <c r="AD22"/>
       <c r="AE22"/>
       <c r="AF22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG22" t="s">
         <v>75</v>
@@ -5385,7 +5418,7 @@
         <v>78</v>
       </c>
       <c r="AN22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO22"/>
       <c r="AP22"/>
@@ -5399,10 +5432,10 @@
         <v>84</v>
       </c>
       <c r="AV22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AW22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:49">
@@ -5411,26 +5444,26 @@
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
         <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
@@ -5456,7 +5489,7 @@
       </c>
       <c r="AA23"/>
       <c r="AB23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC23" t="s">
         <v>73</v>
@@ -5466,7 +5499,7 @@
         <v>106</v>
       </c>
       <c r="AF23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG23" t="s">
         <v>75</v>
@@ -5488,7 +5521,7 @@
         <v>78</v>
       </c>
       <c r="AN23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO23"/>
       <c r="AP23"/>
@@ -5502,10 +5535,10 @@
         <v>84</v>
       </c>
       <c r="AV23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AW23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:49">
@@ -5514,20 +5547,20 @@
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -5555,7 +5588,7 @@
       </c>
       <c r="AA24"/>
       <c r="AB24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC24" t="s">
         <v>73</v>
@@ -5565,7 +5598,7 @@
       </c>
       <c r="AE24"/>
       <c r="AF24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG24" t="s">
         <v>75</v>
@@ -5587,7 +5620,7 @@
         <v>78</v>
       </c>
       <c r="AN24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO24"/>
       <c r="AP24"/>
@@ -5601,10 +5634,10 @@
         <v>84</v>
       </c>
       <c r="AV24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AW24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:49">
@@ -5613,32 +5646,32 @@
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M25"/>
       <c r="N25"/>
@@ -5655,24 +5688,24 @@
         <v>70</v>
       </c>
       <c r="Y25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA25"/>
       <c r="AB25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AC25" t="s">
         <v>73</v>
       </c>
       <c r="AD25"/>
       <c r="AE25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF25" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG25" t="s">
         <v>75</v>
@@ -5694,7 +5727,7 @@
         <v>78</v>
       </c>
       <c r="AN25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO25"/>
       <c r="AP25"/>
@@ -5708,10 +5741,10 @@
         <v>84</v>
       </c>
       <c r="AV25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AW25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:49">
@@ -5720,44 +5753,44 @@
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q26"/>
       <c r="R26"/>
@@ -5770,24 +5803,24 @@
         <v>70</v>
       </c>
       <c r="Y26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA26"/>
       <c r="AB26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AC26" t="s">
         <v>73</v>
       </c>
       <c r="AD26"/>
       <c r="AE26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG26" t="s">
         <v>75</v>
@@ -5809,7 +5842,7 @@
         <v>78</v>
       </c>
       <c r="AN26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO26"/>
       <c r="AP26"/>
@@ -5823,59 +5856,59 @@
         <v>84</v>
       </c>
       <c r="AV26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AW26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:49">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
         <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M27" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
@@ -5900,7 +5933,7 @@
       <c r="AD27"/>
       <c r="AE27"/>
       <c r="AF27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG27" t="s">
         <v>75</v>
@@ -5950,51 +5983,51 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
         <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
@@ -6023,7 +6056,7 @@
         <v>106</v>
       </c>
       <c r="AF28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG28" t="s">
         <v>75</v>
@@ -6073,42 +6106,42 @@
     </row>
     <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H29" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I29" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J29" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K29" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O29"/>
       <c r="P29"/>
@@ -6140,7 +6173,7 @@
       </c>
       <c r="AE29"/>
       <c r="AF29" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG29" t="s">
         <v>75</v>
@@ -6190,60 +6223,60 @@
     </row>
     <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
         <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M30" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q30" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="R30" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U30"/>
       <c r="V30"/>
@@ -6265,7 +6298,7 @@
       <c r="AD30"/>
       <c r="AE30"/>
       <c r="AF30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG30" t="s">
         <v>75</v>
@@ -6315,60 +6348,60 @@
     </row>
     <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
         <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="R31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="U31"/>
       <c r="V31"/>
@@ -6394,7 +6427,7 @@
         <v>106</v>
       </c>
       <c r="AF31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG31" t="s">
         <v>75</v>
@@ -6444,51 +6477,51 @@
     </row>
     <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J32" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K32" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L32" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M32" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N32" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O32" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P32" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q32" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R32"/>
       <c r="S32"/>
@@ -6517,7 +6550,7 @@
       </c>
       <c r="AE32"/>
       <c r="AF32" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG32" t="s">
         <v>75</v>
@@ -6567,60 +6600,60 @@
     </row>
     <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D33" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
         <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H33" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J33" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K33" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N33" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O33" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q33" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="R33" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="S33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="T33" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U33"/>
       <c r="V33"/>
@@ -6642,7 +6675,7 @@
       <c r="AD33"/>
       <c r="AE33"/>
       <c r="AF33" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG33" t="s">
         <v>75</v>
@@ -6692,60 +6725,60 @@
     </row>
     <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H34" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I34" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J34" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K34" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L34" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M34" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N34" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O34" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P34" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q34" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="R34" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S34" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T34" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="U34"/>
       <c r="V34"/>
@@ -6771,7 +6804,7 @@
         <v>106</v>
       </c>
       <c r="AF34" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG34" t="s">
         <v>75</v>
@@ -6821,51 +6854,51 @@
     </row>
     <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
         <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H35" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I35" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J35" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K35" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L35" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M35" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N35" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O35" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P35" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q35" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="R35"/>
       <c r="S35"/>
@@ -6894,7 +6927,7 @@
       </c>
       <c r="AE35"/>
       <c r="AF35" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG35" t="s">
         <v>75</v>
@@ -6944,27 +6977,27 @@
     </row>
     <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B36"/>
       <c r="C36" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D36" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
         <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H36" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
@@ -6997,7 +7030,7 @@
       <c r="AD36"/>
       <c r="AE36"/>
       <c r="AF36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG36" t="s">
         <v>75</v>
@@ -7039,27 +7072,27 @@
     </row>
     <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
         <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H37" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I37" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -7094,7 +7127,7 @@
         <v>106</v>
       </c>
       <c r="AF37" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG37" t="s">
         <v>75</v>
@@ -7136,27 +7169,27 @@
     </row>
     <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D38" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H38" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I38" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
@@ -7191,7 +7224,7 @@
       </c>
       <c r="AE38"/>
       <c r="AF38" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG38" t="s">
         <v>75</v>
@@ -7233,36 +7266,36 @@
     </row>
     <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D39" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
         <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H39" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I39" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J39" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K39" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L39" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
@@ -7292,7 +7325,7 @@
       <c r="AD39"/>
       <c r="AE39"/>
       <c r="AF39" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG39" t="s">
         <v>75</v>
@@ -7334,36 +7367,36 @@
     </row>
     <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D40" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
         <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H40" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I40" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J40" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K40" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L40" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M40"/>
       <c r="N40"/>
@@ -7395,7 +7428,7 @@
         <v>106</v>
       </c>
       <c r="AF40" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG40" t="s">
         <v>75</v>
@@ -7437,36 +7470,36 @@
     </row>
     <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D41" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
         <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H41" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I41" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J41" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K41" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L41" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M41"/>
       <c r="N41"/>
@@ -7498,7 +7531,7 @@
       </c>
       <c r="AE41"/>
       <c r="AF41" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG41" t="s">
         <v>75</v>
@@ -7540,39 +7573,39 @@
     </row>
     <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D42" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
         <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H42" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I42" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J42" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K42" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L42" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M42" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -7601,7 +7634,7 @@
       <c r="AD42"/>
       <c r="AE42"/>
       <c r="AF42" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG42" t="s">
         <v>75</v>
@@ -7643,39 +7676,39 @@
     </row>
     <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D43" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
         <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H43" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I43" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J43" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K43" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L43" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -7706,7 +7739,7 @@
         <v>106</v>
       </c>
       <c r="AF43" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG43" t="s">
         <v>75</v>
@@ -7748,36 +7781,36 @@
     </row>
     <row r="44" spans="1:49">
       <c r="A44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D44" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H44" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I44" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J44" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K44" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L44" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M44"/>
       <c r="N44"/>
@@ -7809,7 +7842,7 @@
       </c>
       <c r="AE44"/>
       <c r="AF44" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG44" t="s">
         <v>75</v>
@@ -7851,24 +7884,24 @@
     </row>
     <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D45" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
         <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -7915,19 +7948,19 @@
       </c>
       <c r="AV45"/>
       <c r="AW45" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D46" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
@@ -7950,7 +7983,9 @@
       <c r="U46"/>
       <c r="V46"/>
       <c r="W46"/>
-      <c r="X46"/>
+      <c r="X46" t="s">
+        <v>70</v>
+      </c>
       <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46"/>
@@ -7976,32 +8011,32 @@
       <c r="AU46"/>
       <c r="AV46"/>
       <c r="AW46" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D47" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
         <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H47" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I47" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -8047,19 +8082,19 @@
       </c>
       <c r="AV47"/>
       <c r="AW47" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B48"/>
       <c r="C48" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D48" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
@@ -8082,7 +8117,9 @@
       <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
-      <c r="X48"/>
+      <c r="X48" t="s">
+        <v>70</v>
+      </c>
       <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48"/>
@@ -8108,35 +8145,35 @@
       <c r="AU48"/>
       <c r="AV48"/>
       <c r="AW48" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:49">
       <c r="A49" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B49"/>
       <c r="C49" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D49" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H49" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I49" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J49" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
@@ -8152,7 +8189,7 @@
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49" t="s">
-        <v>589</v>
+        <v>70</v>
       </c>
       <c r="Y49"/>
       <c r="Z49"/>
@@ -8188,7 +8225,7 @@
     </row>
     <row r="50" spans="1:49">
       <c r="A50" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B50"/>
       <c r="C50" t="s">
@@ -8255,7 +8292,7 @@
     </row>
     <row r="51" spans="1:49">
       <c r="A51" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B51"/>
       <c r="C51" t="s">
@@ -8322,7 +8359,7 @@
     </row>
     <row r="52" spans="1:49">
       <c r="A52" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="s">
@@ -8391,7 +8428,7 @@
     </row>
     <row r="53" spans="1:49">
       <c r="A53" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B53"/>
       <c r="C53" t="s">
@@ -8460,7 +8497,7 @@
     </row>
     <row r="54" spans="1:49">
       <c r="A54" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B54"/>
       <c r="C54" t="s">
@@ -8490,7 +8527,9 @@
       <c r="U54"/>
       <c r="V54"/>
       <c r="W54"/>
-      <c r="X54"/>
+      <c r="X54" t="s">
+        <v>70</v>
+      </c>
       <c r="Y54"/>
       <c r="Z54"/>
       <c r="AA54"/>
@@ -10476,7 +10515,7 @@
       <c r="Z81"/>
       <c r="AA81"/>
       <c r="AB81" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC81"/>
       <c r="AD81"/>
@@ -10557,7 +10596,7 @@
       <c r="Z82"/>
       <c r="AA82"/>
       <c r="AB82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC82"/>
       <c r="AD82"/>
@@ -14072,7 +14111,7 @@
         <v>85</v>
       </c>
       <c r="AT20" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:46">
@@ -14080,47 +14119,47 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q21"/>
       <c r="R21"/>
@@ -14148,7 +14187,7 @@
         <v>106</v>
       </c>
       <c r="AD21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AE21" t="s">
         <v>75</v>
@@ -14192,7 +14231,7 @@
         <v>85</v>
       </c>
       <c r="AT21" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -14200,26 +14239,26 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -14242,7 +14281,7 @@
       </c>
       <c r="Y22"/>
       <c r="Z22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA22" t="s">
         <v>73</v>
@@ -14250,7 +14289,7 @@
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AE22" t="s">
         <v>75</v>
@@ -14271,7 +14310,7 @@
         <v>78</v>
       </c>
       <c r="AK22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL22"/>
       <c r="AM22"/>
@@ -14285,10 +14324,10 @@
         <v>84</v>
       </c>
       <c r="AS22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:46">
@@ -14296,26 +14335,26 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
         <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -14340,7 +14379,7 @@
         <v>105</v>
       </c>
       <c r="Z23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA23" t="s">
         <v>73</v>
@@ -14350,7 +14389,7 @@
         <v>106</v>
       </c>
       <c r="AD23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AE23" t="s">
         <v>75</v>
@@ -14371,7 +14410,7 @@
         <v>78</v>
       </c>
       <c r="AK23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL23"/>
       <c r="AM23"/>
@@ -14385,10 +14424,10 @@
         <v>84</v>
       </c>
       <c r="AS23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -14396,20 +14435,20 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
         <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
@@ -14436,7 +14475,7 @@
         <v>181</v>
       </c>
       <c r="Z24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA24" t="s">
         <v>73</v>
@@ -14446,7 +14485,7 @@
       </c>
       <c r="AC24"/>
       <c r="AD24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE24" t="s">
         <v>75</v>
@@ -14467,7 +14506,7 @@
         <v>78</v>
       </c>
       <c r="AK24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL24"/>
       <c r="AM24"/>
@@ -14481,10 +14520,10 @@
         <v>84</v>
       </c>
       <c r="AS24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:46">
@@ -14492,32 +14531,32 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -14534,23 +14573,23 @@
         <v>70</v>
       </c>
       <c r="X25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA25" t="s">
         <v>73</v>
       </c>
       <c r="AB25"/>
       <c r="AC25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AD25" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AE25" t="s">
         <v>75</v>
@@ -14571,7 +14610,7 @@
         <v>78</v>
       </c>
       <c r="AK25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL25"/>
       <c r="AM25"/>
@@ -14585,10 +14624,10 @@
         <v>84</v>
       </c>
       <c r="AS25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AT25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -14596,44 +14635,44 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P26"/>
       <c r="Q26"/>
@@ -14646,23 +14685,23 @@
         <v>70</v>
       </c>
       <c r="X26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA26" t="s">
         <v>73</v>
       </c>
       <c r="AB26"/>
       <c r="AC26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AD26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AE26" t="s">
         <v>75</v>
@@ -14683,7 +14722,7 @@
         <v>78</v>
       </c>
       <c r="AK26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL26"/>
       <c r="AM26"/>
@@ -14697,10 +14736,10 @@
         <v>84</v>
       </c>
       <c r="AS26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AT26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -14862,50 +14901,50 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -14926,7 +14965,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AB2" t="s">
         <v>75</v>
@@ -14974,50 +15013,50 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
         <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q3"/>
       <c r="R3"/>
@@ -15042,7 +15081,7 @@
         <v>106</v>
       </c>
       <c r="AA3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AB3" t="s">
         <v>75</v>
@@ -15090,41 +15129,41 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
         <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -15152,7 +15191,7 @@
       </c>
       <c r="Z4"/>
       <c r="AA4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AB4" t="s">
         <v>75</v>
@@ -15200,59 +15239,59 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
         <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="S5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T5" t="s">
         <v>70</v>
@@ -15270,7 +15309,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AB5" t="s">
         <v>75</v>
@@ -15318,59 +15357,59 @@
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T6" t="s">
         <v>70</v>
@@ -15392,7 +15431,7 @@
         <v>106</v>
       </c>
       <c r="AA6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AB6" t="s">
         <v>75</v>
@@ -15440,50 +15479,50 @@
     </row>
     <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q7"/>
       <c r="R7"/>
@@ -15508,7 +15547,7 @@
       </c>
       <c r="Z7"/>
       <c r="AA7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AB7" t="s">
         <v>75</v>
@@ -15556,59 +15595,59 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
         <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="R8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="S8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T8" t="s">
         <v>70</v>
@@ -15626,7 +15665,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AB8" t="s">
         <v>75</v>
@@ -15674,59 +15713,59 @@
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
         <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="S9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T9" t="s">
         <v>70</v>
@@ -15748,7 +15787,7 @@
         <v>106</v>
       </c>
       <c r="AA9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AB9" t="s">
         <v>75</v>
@@ -15796,50 +15835,50 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
@@ -15864,7 +15903,7 @@
       </c>
       <c r="Z10"/>
       <c r="AA10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AB10" t="s">
         <v>75</v>
@@ -15912,26 +15951,26 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
         <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -15960,7 +15999,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AB11" t="s">
         <v>75</v>
@@ -16000,26 +16039,26 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
         <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -16050,7 +16089,7 @@
         <v>106</v>
       </c>
       <c r="AA12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AB12" t="s">
         <v>75</v>
@@ -16090,26 +16129,26 @@
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -16140,7 +16179,7 @@
       </c>
       <c r="Z13"/>
       <c r="AA13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB13" t="s">
         <v>75</v>
@@ -16180,35 +16219,35 @@
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -16234,7 +16273,7 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AB14" t="s">
         <v>75</v>
@@ -16274,35 +16313,35 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C15" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
         <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J15" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -16330,7 +16369,7 @@
         <v>106</v>
       </c>
       <c r="AA15" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AB15" t="s">
         <v>75</v>
@@ -16370,35 +16409,35 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C16" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
         <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -16426,7 +16465,7 @@
       </c>
       <c r="Z16"/>
       <c r="AA16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AB16" t="s">
         <v>75</v>
@@ -16466,38 +16505,38 @@
     </row>
     <row r="17" spans="1:42">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B17" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
         <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J17" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K17" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -16522,7 +16561,7 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB17" t="s">
         <v>75</v>
@@ -16562,38 +16601,38 @@
     </row>
     <row r="18" spans="1:42">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C18" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G18" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I18" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -16620,7 +16659,7 @@
         <v>106</v>
       </c>
       <c r="AA18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AB18" t="s">
         <v>75</v>
@@ -16660,35 +16699,35 @@
     </row>
     <row r="19" spans="1:42">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C19" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
         <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H19" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K19" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
@@ -16716,7 +16755,7 @@
       </c>
       <c r="Z19"/>
       <c r="AA19" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AB19" t="s">
         <v>75</v>
@@ -16829,23 +16868,23 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -16858,18 +16897,18 @@
         <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
@@ -16879,36 +16918,38 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
         <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
@@ -16920,18 +16961,18 @@
         <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
@@ -16941,42 +16982,44 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5"/>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J6" t="s">
-        <v>589</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
         <v>590</v>
@@ -16991,7 +17034,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
         <v>592</v>
@@ -17023,7 +17066,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B8" t="s">
         <v>595</v>
@@ -17055,7 +17098,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
         <v>598</v>
@@ -17089,7 +17132,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B10" t="s">
         <v>603</v>
@@ -17123,7 +17166,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B11" t="s">
         <v>608</v>
@@ -17139,7 +17182,9 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
@@ -18808,7 +18853,7 @@
         <v>70</v>
       </c>
       <c r="R28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S28"/>
       <c r="T28"/>
@@ -18873,7 +18918,7 @@
         <v>70</v>
       </c>
       <c r="R29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S29"/>
       <c r="T29"/>
